--- a/data-raw/hutchinson.cotton.uniformity.xlsx
+++ b/data-raw/hutchinson.cotton.uniformity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6619CEA3-DD1E-4735-96A0-572575187EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6223363A-D819-4511-937F-1FF7B82B77C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{8F088FE3-A3A4-46BC-80F2-791BB4366205}"/>
+    <workbookView xWindow="40965" yWindow="2955" windowWidth="11385" windowHeight="12195" xr2:uid="{8F088FE3-A3A4-46BC-80F2-791BB4366205}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,9 +125,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -165,7 +165,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -271,7 +271,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -413,7 +413,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -428,13 +428,13 @@
       <selection pane="topRight" activeCell="AY41" sqref="AY41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="4"/>
-    <col min="2" max="16384" width="6.28515625" style="2"/>
+    <col min="1" max="1" width="6.26953125" style="4"/>
+    <col min="2" max="16384" width="6.26953125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4">
         <v>1</v>
       </c>
@@ -586,7 +586,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -720,7 +720,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -872,7 +872,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="11" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="16" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="41" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -6637,8 +6637,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;10&amp;K000000---Internal Use---</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>